--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>3702.70008447089</v>
+        <v>53.10831882110189</v>
       </c>
       <c r="R2">
-        <v>33324.30076023801</v>
+        <v>477.974869389917</v>
       </c>
       <c r="S2">
-        <v>0.004585417998302734</v>
+        <v>3.892106936752136E-05</v>
       </c>
       <c r="T2">
-        <v>0.004585417998302734</v>
+        <v>3.892106936752136E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>28399.99526862559</v>
+        <v>5017.400546472054</v>
       </c>
       <c r="R3">
-        <v>255599.9574176303</v>
+        <v>45156.60491824849</v>
       </c>
       <c r="S3">
-        <v>0.03517050975925245</v>
+        <v>0.003677062257830038</v>
       </c>
       <c r="T3">
-        <v>0.03517050975925244</v>
+        <v>0.003677062257830038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>4722.101443741248</v>
+        <v>803.933478404748</v>
       </c>
       <c r="R4">
-        <v>42498.91299367123</v>
+        <v>7235.401305642731</v>
       </c>
       <c r="S4">
-        <v>0.005847843048578047</v>
+        <v>0.0005891723062307007</v>
       </c>
       <c r="T4">
-        <v>0.005847843048578047</v>
+        <v>0.0005891723062307008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>17404.61684833888</v>
+        <v>2265.987274641688</v>
       </c>
       <c r="R5">
-        <v>156641.5516350499</v>
+        <v>20393.88547177519</v>
       </c>
       <c r="S5">
-        <v>0.02155385030633407</v>
+        <v>0.001660655992507276</v>
       </c>
       <c r="T5">
-        <v>0.02155385030633407</v>
+        <v>0.001660655992507276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>999.8105972719852</v>
+        <v>81.17106578318266</v>
       </c>
       <c r="R6">
-        <v>8998.295375447868</v>
+        <v>730.539592048644</v>
       </c>
       <c r="S6">
-        <v>0.001238163881231524</v>
+        <v>5.948719055907301E-05</v>
       </c>
       <c r="T6">
-        <v>0.001238163881231524</v>
+        <v>5.948719055907301E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>7668.624404966803</v>
@@ -883,10 +883,10 @@
         <v>69017.61964470122</v>
       </c>
       <c r="S7">
-        <v>0.009496812479151477</v>
+        <v>0.005620043508147854</v>
       </c>
       <c r="T7">
-        <v>0.009496812479151476</v>
+        <v>0.005620043508147854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>1275.071422783218</v>
+        <v>1228.736640689255</v>
       </c>
       <c r="R8">
-        <v>11475.64280504897</v>
+        <v>11058.62976620329</v>
       </c>
       <c r="S8">
-        <v>0.001579046457387362</v>
+        <v>0.0009004944063053171</v>
       </c>
       <c r="T8">
-        <v>0.001579046457387362</v>
+        <v>0.0009004944063053172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>4699.629991478062</v>
+        <v>3463.34823275769</v>
       </c>
       <c r="R9">
-        <v>42296.66992330256</v>
+        <v>31170.13409481922</v>
       </c>
       <c r="S9">
-        <v>0.005820014437212043</v>
+        <v>0.002538156352964513</v>
       </c>
       <c r="T9">
-        <v>0.005820014437212043</v>
+        <v>0.002538156352964513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>555.9480596974338</v>
+        <v>56.786198960146</v>
       </c>
       <c r="R10">
-        <v>5003.532537276904</v>
+        <v>511.0757906413139</v>
       </c>
       <c r="S10">
-        <v>0.0006884852083347659</v>
+        <v>4.161644800489384E-05</v>
       </c>
       <c r="T10">
-        <v>0.0006884852083347657</v>
+        <v>4.161644800489384E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>4264.164502879231</v>
+        <v>5364.867727304117</v>
       </c>
       <c r="R11">
-        <v>38377.48052591307</v>
+        <v>48283.80954573704</v>
       </c>
       <c r="S11">
-        <v>0.005280734656644531</v>
+        <v>0.003931707754963121</v>
       </c>
       <c r="T11">
-        <v>0.005280734656644528</v>
+        <v>0.003931707754963121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>709.0077714780782</v>
+        <v>859.607825455678</v>
       </c>
       <c r="R12">
-        <v>6381.069943302704</v>
+        <v>7736.470429101101</v>
       </c>
       <c r="S12">
-        <v>0.0008780341162135114</v>
+        <v>0.00062997392020873</v>
       </c>
       <c r="T12">
-        <v>0.0008780341162135112</v>
+        <v>0.0006299739202087301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>2613.245130814844</v>
+        <v>2422.912400078344</v>
       </c>
       <c r="R13">
-        <v>23519.20617733359</v>
+        <v>21806.21160070509</v>
       </c>
       <c r="S13">
-        <v>0.003236238686214764</v>
+        <v>0.001775660455615987</v>
       </c>
       <c r="T13">
-        <v>0.003236238686214763</v>
+        <v>0.001775660455615987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>49876.01480207703</v>
+        <v>8711.045671544742</v>
       </c>
       <c r="R14">
-        <v>448884.1332186933</v>
+        <v>78399.41104390268</v>
       </c>
       <c r="S14">
-        <v>0.06176637878834273</v>
+        <v>0.006383994454577335</v>
       </c>
       <c r="T14">
-        <v>0.06176637878834273</v>
+        <v>0.006383994454577336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>382552.8808929445</v>
+        <v>822974.7482683503</v>
       </c>
       <c r="R15">
-        <v>3442975.9280365</v>
+        <v>7406772.734415152</v>
       </c>
       <c r="S15">
-        <v>0.4737528898724557</v>
+        <v>0.6031269295676475</v>
       </c>
       <c r="T15">
-        <v>0.4737528898724556</v>
+        <v>0.6031269295676476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>63607.52859587956</v>
+        <v>131864.4875741199</v>
       </c>
       <c r="R16">
-        <v>572467.757362916</v>
+        <v>1186780.388167079</v>
       </c>
       <c r="S16">
-        <v>0.07877146401199295</v>
+        <v>0.09663847363109759</v>
       </c>
       <c r="T16">
-        <v>0.07877146401199295</v>
+        <v>0.09663847363109762</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>234443.2192045269</v>
+        <v>371676.5862432057</v>
       </c>
       <c r="R17">
-        <v>2109988.972840742</v>
+        <v>3345089.276188851</v>
       </c>
       <c r="S17">
-        <v>0.2903341162923514</v>
+        <v>0.2723876506839725</v>
       </c>
       <c r="T17">
-        <v>0.2903341162923514</v>
+        <v>0.2723876506839725</v>
       </c>
     </row>
   </sheetData>
